--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema4d-Met.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema4d-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H2">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I2">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J2">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N2">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O2">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P2">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q2">
-        <v>1.797070659603053</v>
+        <v>2.765583941384222</v>
       </c>
       <c r="R2">
-        <v>1.797070659603053</v>
+        <v>24.890255472458</v>
       </c>
       <c r="S2">
-        <v>0.002648348064274845</v>
+        <v>0.002058937749055596</v>
       </c>
       <c r="T2">
-        <v>0.002648348064274845</v>
+        <v>0.002058937749055597</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H3">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I3">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J3">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N3">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O3">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P3">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q3">
-        <v>1.06184220153324</v>
+        <v>0.8225165407676669</v>
       </c>
       <c r="R3">
-        <v>1.06184220153324</v>
+        <v>7.402648866909001</v>
       </c>
       <c r="S3">
-        <v>0.00156483982639673</v>
+        <v>0.000612351818242604</v>
       </c>
       <c r="T3">
-        <v>0.00156483982639673</v>
+        <v>0.0006123518182426041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H4">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I4">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J4">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N4">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O4">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P4">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q4">
-        <v>1.560970933506197</v>
+        <v>1.259045612387</v>
       </c>
       <c r="R4">
-        <v>1.560970933506197</v>
+        <v>11.331410511483</v>
       </c>
       <c r="S4">
-        <v>0.002300407236660119</v>
+        <v>0.0009373414779914168</v>
       </c>
       <c r="T4">
-        <v>0.002300407236660119</v>
+        <v>0.0009373414779914169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.23765785783329</v>
+        <v>0.8730476666666668</v>
       </c>
       <c r="H5">
-        <v>1.23765785783329</v>
+        <v>2.619143</v>
       </c>
       <c r="I5">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="J5">
-        <v>0.02947415232106965</v>
+        <v>0.01740928848427011</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.5884398955062</v>
+        <v>21.232711</v>
       </c>
       <c r="N5">
-        <v>12.5884398955062</v>
+        <v>63.69813300000001</v>
       </c>
       <c r="O5">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="P5">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="Q5">
-        <v>15.58018155453533</v>
+        <v>18.53716879555767</v>
       </c>
       <c r="R5">
-        <v>15.58018155453533</v>
+        <v>166.834519160019</v>
       </c>
       <c r="S5">
-        <v>0.02296055719373796</v>
+        <v>0.01380065743898049</v>
       </c>
       <c r="T5">
-        <v>0.02296055719373796</v>
+        <v>0.01380065743898049</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H6">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I6">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J6">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N6">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O6">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P6">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q6">
-        <v>56.39346461465837</v>
+        <v>3.967628629647556</v>
       </c>
       <c r="R6">
-        <v>56.39346461465837</v>
+        <v>35.708657666828</v>
       </c>
       <c r="S6">
-        <v>0.08310720674888301</v>
+        <v>0.002953842853067155</v>
       </c>
       <c r="T6">
-        <v>0.08310720674888301</v>
+        <v>0.002953842853067155</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H7">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I7">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J7">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N7">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O7">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P7">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q7">
-        <v>33.3214280131548</v>
+        <v>1.180018486032667</v>
       </c>
       <c r="R7">
-        <v>33.3214280131548</v>
+        <v>10.620166374294</v>
       </c>
       <c r="S7">
-        <v>0.04910588178931404</v>
+        <v>0.000878506911007027</v>
       </c>
       <c r="T7">
-        <v>0.04910588178931404</v>
+        <v>0.000878506911007027</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H8">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I8">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J8">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N8">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O8">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P8">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q8">
-        <v>48.98447294367168</v>
+        <v>1.806282334442</v>
       </c>
       <c r="R8">
-        <v>48.98447294367168</v>
+        <v>16.256541009978</v>
       </c>
       <c r="S8">
-        <v>0.07218855497231894</v>
+        <v>0.0013447514024736</v>
       </c>
       <c r="T8">
-        <v>0.07218855497231894</v>
+        <v>0.0013447514024736</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>38.8386590353617</v>
+        <v>1.252512666666667</v>
       </c>
       <c r="H9">
-        <v>38.8386590353617</v>
+        <v>3.757538</v>
       </c>
       <c r="I9">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="J9">
-        <v>0.9249216535160822</v>
+        <v>0.02497613266347325</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.5884398955062</v>
+        <v>21.232711</v>
       </c>
       <c r="N9">
-        <v>12.5884398955062</v>
+        <v>63.69813300000001</v>
       </c>
       <c r="O9">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="P9">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="Q9">
-        <v>488.9181248887096</v>
+        <v>26.59423947517267</v>
       </c>
       <c r="R9">
-        <v>488.9181248887096</v>
+        <v>239.348155276554</v>
       </c>
       <c r="S9">
-        <v>0.7205200100055662</v>
+        <v>0.01979903149692547</v>
       </c>
       <c r="T9">
-        <v>0.7205200100055662</v>
+        <v>0.01979903149692547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.91497922114815</v>
+        <v>45.633473</v>
       </c>
       <c r="H10">
-        <v>1.91497922114815</v>
+        <v>136.900419</v>
       </c>
       <c r="I10">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="J10">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N10">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O10">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P10">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q10">
-        <v>2.780536600074162</v>
+        <v>144.5547648048127</v>
       </c>
       <c r="R10">
-        <v>2.780536600074162</v>
+        <v>1300.992883243314</v>
       </c>
       <c r="S10">
-        <v>0.004097684575228851</v>
+        <v>0.1076189580105508</v>
       </c>
       <c r="T10">
-        <v>0.004097684575228851</v>
+        <v>0.1076189580105508</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.91497922114815</v>
+        <v>45.633473</v>
       </c>
       <c r="H11">
-        <v>1.91497922114815</v>
+        <v>136.900419</v>
       </c>
       <c r="I11">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="J11">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N11">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O11">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P11">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q11">
-        <v>1.642946585928158</v>
+        <v>42.99225321623301</v>
       </c>
       <c r="R11">
-        <v>1.642946585928158</v>
+        <v>386.930278946097</v>
       </c>
       <c r="S11">
-        <v>0.002421214985230964</v>
+        <v>0.03200711854710656</v>
       </c>
       <c r="T11">
-        <v>0.002421214985230964</v>
+        <v>0.03200711854710656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.91497922114815</v>
+        <v>45.633473</v>
       </c>
       <c r="H12">
-        <v>1.91497922114815</v>
+        <v>136.900419</v>
       </c>
       <c r="I12">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="J12">
-        <v>0.04560419416284801</v>
+        <v>0.9099689814525027</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N12">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O12">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P12">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q12">
-        <v>2.415228799753833</v>
+        <v>65.809263517071</v>
       </c>
       <c r="R12">
-        <v>2.415228799753833</v>
+        <v>592.2833716536389</v>
       </c>
       <c r="S12">
-        <v>0.00355932944674629</v>
+        <v>0.04899405686635065</v>
       </c>
       <c r="T12">
-        <v>0.00355932944674629</v>
+        <v>0.04899405686635065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>45.633473</v>
+      </c>
+      <c r="H13">
+        <v>136.900419</v>
+      </c>
+      <c r="I13">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="J13">
+        <v>0.9099689814525027</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.232711</v>
+      </c>
+      <c r="N13">
+        <v>63.69813300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.7927180626278817</v>
+      </c>
+      <c r="P13">
+        <v>0.7927180626278817</v>
+      </c>
+      <c r="Q13">
+        <v>968.9223441353031</v>
+      </c>
+      <c r="R13">
+        <v>8720.301097217727</v>
+      </c>
+      <c r="S13">
+        <v>0.7213488480284947</v>
+      </c>
+      <c r="T13">
+        <v>0.7213488480284947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H14">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J14">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.167735333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.503206</v>
+      </c>
+      <c r="O14">
+        <v>0.1182666224938439</v>
+      </c>
+      <c r="P14">
+        <v>0.1182666224938439</v>
+      </c>
+      <c r="Q14">
+        <v>7.568827362788223</v>
+      </c>
+      <c r="R14">
+        <v>68.11944626509401</v>
+      </c>
+      <c r="S14">
+        <v>0.005634883881170375</v>
+      </c>
+      <c r="T14">
+        <v>0.005634883881170377</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H15">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J15">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9421210000000001</v>
+      </c>
+      <c r="N15">
+        <v>2.826363</v>
+      </c>
+      <c r="O15">
+        <v>0.03517385669126484</v>
+      </c>
+      <c r="P15">
+        <v>0.03517385669126484</v>
+      </c>
+      <c r="Q15">
+        <v>2.251056497309667</v>
+      </c>
+      <c r="R15">
+        <v>20.259508475787</v>
+      </c>
+      <c r="S15">
+        <v>0.001675879414908647</v>
+      </c>
+      <c r="T15">
+        <v>0.001675879414908648</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.91497922114815</v>
-      </c>
-      <c r="H13">
-        <v>1.91497922114815</v>
-      </c>
-      <c r="I13">
-        <v>0.04560419416284801</v>
-      </c>
-      <c r="J13">
-        <v>0.04560419416284801</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.5884398955062</v>
-      </c>
-      <c r="N13">
-        <v>12.5884398955062</v>
-      </c>
-      <c r="O13">
-        <v>0.7790065323549461</v>
-      </c>
-      <c r="P13">
-        <v>0.7790065323549461</v>
-      </c>
-      <c r="Q13">
-        <v>24.10660082656676</v>
-      </c>
-      <c r="R13">
-        <v>24.10660082656676</v>
-      </c>
-      <c r="S13">
-        <v>0.0355259651556419</v>
-      </c>
-      <c r="T13">
-        <v>0.0355259651556419</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H16">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J16">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.442127</v>
+      </c>
+      <c r="N16">
+        <v>4.326381</v>
+      </c>
+      <c r="O16">
+        <v>0.05384145818700961</v>
+      </c>
+      <c r="P16">
+        <v>0.0538414581870096</v>
+      </c>
+      <c r="Q16">
+        <v>3.445745666741</v>
+      </c>
+      <c r="R16">
+        <v>31.011711000669</v>
+      </c>
+      <c r="S16">
+        <v>0.002565308440193948</v>
+      </c>
+      <c r="T16">
+        <v>0.002565308440193948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.389349666666667</v>
+      </c>
+      <c r="H17">
+        <v>7.168049000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.04764559739975398</v>
+      </c>
+      <c r="J17">
+        <v>0.04764559739975399</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.232711</v>
+      </c>
+      <c r="N17">
+        <v>63.69813300000001</v>
+      </c>
+      <c r="O17">
+        <v>0.7927180626278817</v>
+      </c>
+      <c r="P17">
+        <v>0.7927180626278817</v>
+      </c>
+      <c r="Q17">
+        <v>50.73237095027968</v>
+      </c>
+      <c r="R17">
+        <v>456.5913385525171</v>
+      </c>
+      <c r="S17">
+        <v>0.03776952566348102</v>
+      </c>
+      <c r="T17">
+        <v>0.03776952566348103</v>
       </c>
     </row>
   </sheetData>
